--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsmyrnov\PycharmProjects\selenium-zgl-bvt\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCB6856-49B1-45F5-B6ED-CD69DB100518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFBFAD3-DEE1-4363-8A98-2665A7AAC588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24480" yWindow="612" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23784" yWindow="768" windowWidth="21600" windowHeight="11388" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meganav" sheetId="1" r:id="rId1"/>
+    <sheet name="BVT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Meganav Name</t>
   </si>
@@ -37,16 +38,69 @@
   </si>
   <si>
     <t>/c-28-serveware-flatware</t>
+  </si>
+  <si>
+    <t>Meganav1</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Price Filter</t>
+  </si>
+  <si>
+    <t>Color Filter</t>
+  </si>
+  <si>
+    <t>Expected breadcrumb</t>
+  </si>
+  <si>
+    <t>bvt-01</t>
+  </si>
+  <si>
+    <t>Guest user should be able to add products to cart and checkout</t>
+  </si>
+  <si>
+    <t>Test Rail url</t>
+  </si>
+  <si>
+    <t>https://surlatable.testrail.net/index.php?/cases/view/12080&amp;group_by=cases:section_id&amp;group_order=asc&amp;display_deleted_cases=0&amp;group_id=1961</t>
+  </si>
+  <si>
+    <t>$60-$79</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Home  Tableware  Serveware &amp; Flatware $60 - $79x  Clear All</t>
+  </si>
+  <si>
+    <t>Serveware &amp; Flatware</t>
+  </si>
+  <si>
+    <t>Expected Header</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,13 +123,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -356,7 +413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -385,4 +442,84 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CCC071-A5A8-4DCD-A5E4-F3DFE59C42EC}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="138" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{0D849ED7-3A66-4D84-BB58-31C3B24D9B22}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsmyrnov\PycharmProjects\selenium-zgl-bvt\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFBFAD3-DEE1-4363-8A98-2665A7AAC588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D39C79-5E7C-4CBC-90ED-2844CCE9AB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23784" yWindow="768" windowWidth="21600" windowHeight="11388" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="450" windowWidth="26205" windowHeight="14235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meganav" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Meganav Name</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Color Filter</t>
   </si>
   <si>
-    <t>Expected breadcrumb</t>
-  </si>
-  <si>
     <t>bvt-01</t>
   </si>
   <si>
@@ -70,26 +67,35 @@
     <t>https://surlatable.testrail.net/index.php?/cases/view/12080&amp;group_by=cases:section_id&amp;group_order=asc&amp;display_deleted_cases=0&amp;group_id=1961</t>
   </si>
   <si>
-    <t>$60-$79</t>
-  </si>
-  <si>
     <t>Gold</t>
   </si>
   <si>
-    <t>Home  Tableware  Serveware &amp; Flatware $60 - $79x  Clear All</t>
-  </si>
-  <si>
     <t>Serveware &amp; Flatware</t>
   </si>
   <si>
     <t>Expected Header</t>
+  </si>
+  <si>
+    <t>60-79</t>
+  </si>
+  <si>
+    <t>Expected Breadcrumb</t>
+  </si>
+  <si>
+    <t>Home/Tableware</t>
+  </si>
+  <si>
+    <t>Filtered Products</t>
+  </si>
+  <si>
+    <t>Home/Tableware/Serveware &amp; Flatware/Goldx/$60 - $79x/Clear All</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +107,28 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,9 +155,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -446,10 +477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CCC071-A5A8-4DCD-A5E4-F3DFE59C42EC}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,13 +489,15 @@
     <col min="2" max="2" width="57.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" customWidth="1"/>
     <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="138" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="138" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -475,50 +508,62 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{0D849ED7-3A66-4D84-BB58-31C3B24D9B22}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{0D849ED7-3A66-4D84-BB58-31C3B24D9B22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsmyrnov\PycharmProjects\selenium-zgl-bvt\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D39C79-5E7C-4CBC-90ED-2844CCE9AB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83834B49-D309-4F27-9800-8932745F4E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="450" windowWidth="26205" windowHeight="14235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="945" windowWidth="26205" windowHeight="14235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meganav" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Meganav Name</t>
   </si>
@@ -79,23 +79,38 @@
     <t>60-79</t>
   </si>
   <si>
-    <t>Expected Breadcrumb</t>
-  </si>
-  <si>
-    <t>Home/Tableware</t>
+    <t>Goldx</t>
+  </si>
+  <si>
+    <t>$60 - $79x</t>
   </si>
   <si>
     <t>Filtered Products</t>
   </si>
   <si>
     <t>Home/Tableware/Serveware &amp; Flatware/Goldx/$60 - $79x/Clear All</t>
+  </si>
+  <si>
+    <t>Color Displayed</t>
+  </si>
+  <si>
+    <t>Price Displayed</t>
+  </si>
+  <si>
+    <t>Expected Breadcrumb Path</t>
+  </si>
+  <si>
+    <t>Clear All Filters</t>
+  </si>
+  <si>
+    <t>Clear All</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +148,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,12 +178,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -477,27 +501,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CCC071-A5A8-4DCD-A5E4-F3DFE59C42EC}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="138" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="138" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -511,25 +537,31 @@
         <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -542,28 +574,34 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="4">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{0D849ED7-3A66-4D84-BB58-31C3B24D9B22}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{0D849ED7-3A66-4D84-BB58-31C3B24D9B22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsmyrnov\PycharmProjects\selenium-zgl-bvt\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83834B49-D309-4F27-9800-8932745F4E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCAA9DB-D80A-4F10-AC05-8E932CC573CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="945" windowWidth="26205" windowHeight="14235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Meganav Name</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Clear All</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -501,10 +504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CCC071-A5A8-4DCD-A5E4-F3DFE59C42EC}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,10 +523,10 @@
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="138" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="138" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -558,10 +561,13 @@
         <v>23</v>
       </c>
       <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -595,13 +601,16 @@
       <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{0D849ED7-3A66-4D84-BB58-31C3B24D9B22}"/>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{0D849ED7-3A66-4D84-BB58-31C3B24D9B22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsmyrnov\PycharmProjects\selenium-zgl-bvt\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCAA9DB-D80A-4F10-AC05-8E932CC573CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784905AD-68A8-4029-A4EF-4DD5296875BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="945" windowWidth="26205" windowHeight="14235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Meganav Name</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>Home/Tableware/Serveware &amp; Flatware</t>
+  </si>
+  <si>
+    <t>Expected Meganav Breadcrumb</t>
   </si>
 </sst>
 </file>
@@ -504,10 +510,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CCC071-A5A8-4DCD-A5E4-F3DFE59C42EC}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,17 +522,18 @@
     <col min="2" max="2" width="57.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="138" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="138" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -540,34 +547,37 @@
         <v>15</v>
       </c>
       <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -580,37 +590,40 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>2</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" xr:uid="{0D849ED7-3A66-4D84-BB58-31C3B24D9B22}"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{0D849ED7-3A66-4D84-BB58-31C3B24D9B22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsmyrnov\PycharmProjects\selenium-zgl-bvt\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784905AD-68A8-4029-A4EF-4DD5296875BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DE0B8C-EB1F-47B7-8A28-D51EE352FF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="945" windowWidth="26205" windowHeight="14235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsmyrnov\PycharmProjects\selenium-zgl-bvt\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DE0B8C-EB1F-47B7-8A28-D51EE352FF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBA3D0F-43EF-413E-84D8-D0746F917B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="945" windowWidth="26205" windowHeight="14235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Meganav Name</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Serveware &amp; Flatware</t>
   </si>
   <si>
-    <t>Expected Header</t>
-  </si>
-  <si>
     <t>60-79</t>
   </si>
   <si>
@@ -113,6 +110,27 @@
   </si>
   <si>
     <t>Expected Meganav Breadcrumb</t>
+  </si>
+  <si>
+    <t>Meganav2</t>
+  </si>
+  <si>
+    <t>/c-340-30-under</t>
+  </si>
+  <si>
+    <t>Meganav2 Breadcrumbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home/Collections/$30 &amp; Under </t>
+  </si>
+  <si>
+    <t>Meganav1 Header</t>
+  </si>
+  <si>
+    <t>Meganav2 Header</t>
+  </si>
+  <si>
+    <t>$30 &amp; Under</t>
   </si>
 </sst>
 </file>
@@ -510,10 +528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CCC071-A5A8-4DCD-A5E4-F3DFE59C42EC}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,10 +548,13 @@
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="138" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35" customWidth="1"/>
+    <col min="17" max="17" width="138" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -544,40 +565,49 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
       <c r="M1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
       </c>
       <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -591,39 +621,48 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="J2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" s="4">
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M2">
         <v>2</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{0D849ED7-3A66-4D84-BB58-31C3B24D9B22}"/>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{0D849ED7-3A66-4D84-BB58-31C3B24D9B22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsmyrnov\PycharmProjects\selenium-zgl-bvt\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBA3D0F-43EF-413E-84D8-D0746F917B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFC5A33-BB2F-41A0-902D-E864E1B107D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="945" windowWidth="26205" windowHeight="14235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="945" windowWidth="26205" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Meganav" sheetId="1" r:id="rId1"/>
-    <sheet name="BVT" sheetId="2" r:id="rId2"/>
+    <sheet name="Constants" sheetId="3" r:id="rId1"/>
+    <sheet name="Meganav" sheetId="1" r:id="rId2"/>
+    <sheet name="BVT" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Meganav Name</t>
   </si>
@@ -131,6 +132,18 @@
   </si>
   <si>
     <t>$30 &amp; Under</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>['10001', '77024']</t>
+  </si>
+  <si>
+    <t>ZIP CODES</t>
+  </si>
+  <si>
+    <t>constant</t>
   </si>
 </sst>
 </file>
@@ -492,11 +505,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2B43D5-2FC5-4CCF-886B-08DFFA3DBD04}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,12 +574,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CCC071-A5A8-4DCD-A5E4-F3DFE59C42EC}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsmyrnov\PycharmProjects\selenium-zgl-bvt\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFC5A33-BB2F-41A0-902D-E864E1B107D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AF4851-A4B7-424D-A264-D277816E5393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="945" windowWidth="26205" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsmyrnov\PycharmProjects\selenium-zgl-bvt\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AF4851-A4B7-424D-A264-D277816E5393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFC7AC3-6E98-444C-9A5F-F41782DD3EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="945" windowWidth="26205" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="945" windowWidth="26205" windowHeight="14235" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="3" r:id="rId1"/>
     <sheet name="Meganav" sheetId="1" r:id="rId2"/>
     <sheet name="BVT" sheetId="2" r:id="rId3"/>
+    <sheet name="Users" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>Meganav Name</t>
   </si>
@@ -144,14 +145,145 @@
   </si>
   <si>
     <t>constant</t>
+  </si>
+  <si>
+    <t>user id</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>re password</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>e2e-10</t>
+  </si>
+  <si>
+    <t>e2e-11</t>
+  </si>
+  <si>
+    <t>e2e-12</t>
+  </si>
+  <si>
+    <t>e2e-13</t>
+  </si>
+  <si>
+    <t>e2e-14</t>
+  </si>
+  <si>
+    <t>e2e-15</t>
+  </si>
+  <si>
+    <t>e2e-16</t>
+  </si>
+  <si>
+    <t>e2e-17</t>
+  </si>
+  <si>
+    <t>e2e-18</t>
+  </si>
+  <si>
+    <t>e2e-19</t>
+  </si>
+  <si>
+    <t>zgallerieautomation_tc10@zgqa.com</t>
+  </si>
+  <si>
+    <t>zgallerieautomation_tc11@zgqa.com</t>
+  </si>
+  <si>
+    <t>zgallerieautomation_tc12@zgqa.com</t>
+  </si>
+  <si>
+    <t>zgallerieautomation_tc13@zgqa.com</t>
+  </si>
+  <si>
+    <t>zgallerieautomation_tc14@zgqa.com</t>
+  </si>
+  <si>
+    <t>zgallerieautomation_tc15@zgqa.com</t>
+  </si>
+  <si>
+    <t>zgallerieautomation_tc16@zgqa.com</t>
+  </si>
+  <si>
+    <t>zgallerieautomation_tc17@zgqa.com</t>
+  </si>
+  <si>
+    <t>zgallerieautomation_tc18@zgqa.com</t>
+  </si>
+  <si>
+    <t>zgallerieautomation_tc19@zgqa.com</t>
+  </si>
+  <si>
+    <t>Password1</t>
+  </si>
+  <si>
+    <t>FIRST NAMES</t>
+  </si>
+  <si>
+    <t>['Johny', 'BahuBali', 'Sherlock', 'Ivan', 'Kassandra', 'Nefertiti']</t>
+  </si>
+  <si>
+    <t>LAST NAMES</t>
+  </si>
+  <si>
+    <t>['Holms',  'Batman', 'Karambulya', 'Dundar', 'Barmaley']</t>
+  </si>
+  <si>
+    <t>pay pal</t>
+  </si>
+  <si>
+    <t>jmatos@directbuy.com</t>
+  </si>
+  <si>
+    <t>draw~88~dress</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>Fname1</t>
+  </si>
+  <si>
+    <t>Lname1</t>
+  </si>
+  <si>
+    <t>Fname1@zgqa.com</t>
+  </si>
+  <si>
+    <t>new 1</t>
+  </si>
+  <si>
+    <t>new random</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
+  <fonts count="14" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -196,13 +328,76 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -216,15 +411,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -506,16 +710,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2B43D5-2FC5-4CCF-886B-08DFFA3DBD04}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,6 +736,22 @@
       </c>
       <c r="B2" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -714,4 +934,275 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7544987D-61EB-40BF-AEE6-388E1D4A3981}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{144993FF-2F6C-49A9-9A1F-DDCB6807E14B}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{C3F12CE7-B200-46A1-A74E-3FB3FD020297}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{1A7C8710-D411-457B-83A9-4526A1CBE91B}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{6673F2A9-1243-4C98-B6CF-AFC9D8036E04}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{995A46BC-5B10-4EB1-80C9-4AEB6A54B765}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{5F7C0A75-4924-46A9-AC1C-8CE8C35005FB}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{BF610CEF-0892-42EF-9CF0-B84CA2EF4D14}"/>
+    <hyperlink ref="D7" r:id="rId8" xr:uid="{98FAD294-946E-44C2-B0EC-107676A06B68}"/>
+    <hyperlink ref="D9" r:id="rId9" xr:uid="{0B183D29-6919-4225-8648-6EFF74C00869}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{6C99A9E9-1F71-4460-8B6D-96D531F7BC7E}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{386AF918-E04F-4741-A52A-B4143C5DC082}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{1FAA3988-47DB-405E-9C90-358C90309DB4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsmyrnov\PycharmProjects\selenium-zgl-bvt\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFC7AC3-6E98-444C-9A5F-F41782DD3EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FE4AD3-5086-4AE0-BD4A-B6A6F46961E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="945" windowWidth="26205" windowHeight="14235" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
   <si>
     <t>Meganav Name</t>
   </si>
@@ -234,15 +234,9 @@
     <t>FIRST NAMES</t>
   </si>
   <si>
-    <t>['Johny', 'BahuBali', 'Sherlock', 'Ivan', 'Kassandra', 'Nefertiti']</t>
-  </si>
-  <si>
     <t>LAST NAMES</t>
   </si>
   <si>
-    <t>['Holms',  'Batman', 'Karambulya', 'Dundar', 'Barmaley']</t>
-  </si>
-  <si>
     <t>pay pal</t>
   </si>
   <si>
@@ -268,13 +262,28 @@
   </si>
   <si>
     <t>new random</t>
+  </si>
+  <si>
+    <t>RANDOM KEY</t>
+  </si>
+  <si>
+    <t>['Holms',  'Batman', 'Karambulya', 'Dundar', 'Barmaley', 'Kurgudu', 'Laptop']</t>
+  </si>
+  <si>
+    <t>['Johny', 'BahuBali', 'Sherlock', 'Ivan', 'Kassandra', 'Nefertiti', 'Kuzya', 'Bob', 'Luciano']</t>
+  </si>
+  <si>
+    <t>EMAIL SUFFIX</t>
+  </si>
+  <si>
+    <t>zgqa.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +390,14 @@
       <u/>
       <sz val="11"/>
       <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -413,7 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -429,6 +446,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -710,16 +728,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2B43D5-2FC5-4CCF-886B-08DFFA3DBD04}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,15 +761,31 @@
         <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -941,7 +975,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,29 +1164,29 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>66</v>
@@ -1161,30 +1195,30 @@
         <v>66</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>77</v>
-      </c>
       <c r="E14" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>74</v>
+      <c r="G14" s="10">
+        <v>2197361100</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsmyrnov\PycharmProjects\selenium-zgl-bvt\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FE4AD3-5086-4AE0-BD4A-B6A6F46961E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFB31B0-AFE8-4C06-8059-7B2BE984A504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="945" windowWidth="26205" windowHeight="14235" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="945" windowWidth="26205" windowHeight="14235" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="3" r:id="rId1"/>
     <sheet name="Meganav" sheetId="1" r:id="rId2"/>
     <sheet name="BVT" sheetId="2" r:id="rId3"/>
-    <sheet name="Users" sheetId="4" r:id="rId4"/>
+    <sheet name="User" sheetId="4" r:id="rId4"/>
+    <sheet name="Address" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="114">
   <si>
     <t>Meganav Name</t>
   </si>
@@ -249,6 +250,9 @@
     <t>random</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>Fname1</t>
   </si>
   <si>
@@ -277,13 +281,103 @@
   </si>
   <si>
     <t>zgqa.com</t>
+  </si>
+  <si>
+    <t>ACCOUNT SAVED</t>
+  </si>
+  <si>
+    <t>Your account information has been saved.</t>
+  </si>
+  <si>
+    <t>address_id</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>line_1</t>
+  </si>
+  <si>
+    <t>line_2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>guest</t>
+  </si>
+  <si>
+    <t>zgautomation@zgqa.com</t>
+  </si>
+  <si>
+    <t>ZGAutomation</t>
+  </si>
+  <si>
+    <t>Guestuser</t>
+  </si>
+  <si>
+    <t>8450 Broadway</t>
+  </si>
+  <si>
+    <t>Merrillville</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>shipping</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>777 Brockton Avenue</t>
+  </si>
+  <si>
+    <t>Abington</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>billing</t>
+  </si>
+  <si>
+    <t>Billing User</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>134 King St</t>
+  </si>
+  <si>
+    <t>Falmouth</t>
+  </si>
+  <si>
+    <t>227 Sharrott Ave</t>
+  </si>
+  <si>
+    <t>Staten Island</t>
+  </si>
+  <si>
+    <t>NY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +489,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="8" tint="-0.499984740745262"/>
@@ -402,8 +503,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +522,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,7 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -447,6 +562,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -728,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2B43D5-2FC5-4CCF-886B-08DFFA3DBD04}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +881,7 @@
         <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -769,12 +889,12 @@
         <v>68</v>
       </c>
       <c r="B4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>72</v>
@@ -782,10 +902,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -972,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7544987D-61EB-40BF-AEE6-388E1D4A3981}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1305,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>72</v>
@@ -1200,16 +1328,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>66</v>
@@ -1219,6 +1347,16 @@
       </c>
       <c r="G14" s="10">
         <v>2197361100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="15" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1374,191 @@
     <hyperlink ref="D11" r:id="rId10" xr:uid="{6C99A9E9-1F71-4460-8B6D-96D531F7BC7E}"/>
     <hyperlink ref="D12" r:id="rId11" xr:uid="{386AF918-E04F-4741-A52A-B4143C5DC082}"/>
     <hyperlink ref="D14" r:id="rId12" xr:uid="{1FAA3988-47DB-405E-9C90-358C90309DB4}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{D43427EC-18A2-43E2-800A-27A98EBB037E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375C77DC-8AA5-4748-B2D3-355A851807C5}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="61.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>46410</v>
+      </c>
+      <c r="I2">
+        <v>2197361100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3">
+        <v>60173</v>
+      </c>
+      <c r="I3">
+        <v>2197361100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>46410</v>
+      </c>
+      <c r="I4">
+        <v>2197361100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5">
+        <v>2540</v>
+      </c>
+      <c r="I5">
+        <v>2197361100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6">
+        <v>10309</v>
+      </c>
+      <c r="I6">
+        <v>7183176103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsmyrnov\PycharmProjects\selenium-zgl-bvt\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFB31B0-AFE8-4C06-8059-7B2BE984A504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADDDB29-1069-4F5D-9214-30CCF86C3E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="945" windowWidth="26205" windowHeight="14235" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="118">
   <si>
     <t>Meganav Name</t>
   </si>
@@ -371,6 +371,18 @@
   </si>
   <si>
     <t>NY</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>fulll_state</t>
   </si>
 </sst>
 </file>
@@ -1382,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375C77DC-8AA5-4748-B2D3-355A851807C5}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,11 +1407,12 @@
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="61.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>86</v>
       </c>
@@ -1422,13 +1435,16 @@
         <v>92</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -1447,14 +1463,17 @@
       <c r="G2" t="s">
         <v>100</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2">
         <v>46410</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2197361100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -1473,14 +1492,17 @@
       <c r="G3" t="s">
         <v>105</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3">
         <v>60173</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2197361100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -1499,14 +1521,17 @@
       <c r="G4" t="s">
         <v>100</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4">
         <v>46410</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2197361100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -1525,14 +1550,17 @@
       <c r="G5" t="s">
         <v>105</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5">
         <v>2540</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2197361100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -1551,10 +1579,13 @@
       <c r="G6" t="s">
         <v>113</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6">
         <v>10309</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>7183176103</v>
       </c>
     </row>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsmyrnov\PycharmProjects\selenium-zgl-bvt\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADDDB29-1069-4F5D-9214-30CCF86C3E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD269A87-AACF-4EF7-A44E-AB52022204BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="945" windowWidth="26205" windowHeight="14235" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="3" r:id="rId1"/>
     <sheet name="Meganav" sheetId="1" r:id="rId2"/>
-    <sheet name="BVT" sheetId="2" r:id="rId3"/>
-    <sheet name="User" sheetId="4" r:id="rId4"/>
-    <sheet name="Address" sheetId="5" r:id="rId5"/>
+    <sheet name="User" sheetId="4" r:id="rId3"/>
+    <sheet name="Address" sheetId="5" r:id="rId4"/>
+    <sheet name="BVT" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="120">
   <si>
     <t>Meganav Name</t>
   </si>
@@ -383,6 +383,12 @@
   </si>
   <si>
     <t>fulll_state</t>
+  </si>
+  <si>
+    <t>bvt-01-tmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home/Art &amp; Mirrors/Art By Type/Framed Art </t>
   </si>
 </sst>
 </file>
@@ -863,7 +869,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,153 +975,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CCC071-A5A8-4DCD-A5E4-F3DFE59C42EC}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35" customWidth="1"/>
-    <col min="17" max="17" width="138" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="4">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{0D849ED7-3A66-4D84-BB58-31C3B24D9B22}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7544987D-61EB-40BF-AEE6-388E1D4A3981}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,12 +1256,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375C77DC-8AA5-4748-B2D3-355A851807C5}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,4 +1456,200 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CCC071-A5A8-4DCD-A5E4-F3DFE59C42EC}">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="138" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="4">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{0D849ED7-3A66-4D84-BB58-31C3B24D9B22}"/>
+    <hyperlink ref="Q3" r:id="rId2" xr:uid="{3BD28145-6E65-4F6F-A25C-D03F5BB781F0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsmyrnov\PycharmProjects\selenium-zgl-bvt\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCB6856-49B1-45F5-B6ED-CD69DB100518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD269A87-AACF-4EF7-A44E-AB52022204BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24480" yWindow="612" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="945" windowWidth="26205" windowHeight="14235" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Meganav" sheetId="1" r:id="rId1"/>
+    <sheet name="Constants" sheetId="3" r:id="rId1"/>
+    <sheet name="Meganav" sheetId="1" r:id="rId2"/>
+    <sheet name="User" sheetId="4" r:id="rId3"/>
+    <sheet name="Address" sheetId="5" r:id="rId4"/>
+    <sheet name="BVT" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="120">
   <si>
     <t>Meganav Name</t>
   </si>
@@ -37,13 +41,361 @@
   </si>
   <si>
     <t>/c-28-serveware-flatware</t>
+  </si>
+  <si>
+    <t>Meganav1</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Price Filter</t>
+  </si>
+  <si>
+    <t>Color Filter</t>
+  </si>
+  <si>
+    <t>bvt-01</t>
+  </si>
+  <si>
+    <t>Guest user should be able to add products to cart and checkout</t>
+  </si>
+  <si>
+    <t>Test Rail url</t>
+  </si>
+  <si>
+    <t>https://surlatable.testrail.net/index.php?/cases/view/12080&amp;group_by=cases:section_id&amp;group_order=asc&amp;display_deleted_cases=0&amp;group_id=1961</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Serveware &amp; Flatware</t>
+  </si>
+  <si>
+    <t>60-79</t>
+  </si>
+  <si>
+    <t>Goldx</t>
+  </si>
+  <si>
+    <t>$60 - $79x</t>
+  </si>
+  <si>
+    <t>Filtered Products</t>
+  </si>
+  <si>
+    <t>Home/Tableware/Serveware &amp; Flatware/Goldx/$60 - $79x/Clear All</t>
+  </si>
+  <si>
+    <t>Color Displayed</t>
+  </si>
+  <si>
+    <t>Price Displayed</t>
+  </si>
+  <si>
+    <t>Expected Breadcrumb Path</t>
+  </si>
+  <si>
+    <t>Clear All Filters</t>
+  </si>
+  <si>
+    <t>Clear All</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Home/Tableware/Serveware &amp; Flatware</t>
+  </si>
+  <si>
+    <t>Expected Meganav Breadcrumb</t>
+  </si>
+  <si>
+    <t>Meganav2</t>
+  </si>
+  <si>
+    <t>/c-340-30-under</t>
+  </si>
+  <si>
+    <t>Meganav2 Breadcrumbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home/Collections/$30 &amp; Under </t>
+  </si>
+  <si>
+    <t>Meganav1 Header</t>
+  </si>
+  <si>
+    <t>Meganav2 Header</t>
+  </si>
+  <si>
+    <t>$30 &amp; Under</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>['10001', '77024']</t>
+  </si>
+  <si>
+    <t>ZIP CODES</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>user id</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>re password</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>e2e-10</t>
+  </si>
+  <si>
+    <t>e2e-11</t>
+  </si>
+  <si>
+    <t>e2e-12</t>
+  </si>
+  <si>
+    <t>e2e-13</t>
+  </si>
+  <si>
+    <t>e2e-14</t>
+  </si>
+  <si>
+    <t>e2e-15</t>
+  </si>
+  <si>
+    <t>e2e-16</t>
+  </si>
+  <si>
+    <t>e2e-17</t>
+  </si>
+  <si>
+    <t>e2e-18</t>
+  </si>
+  <si>
+    <t>e2e-19</t>
+  </si>
+  <si>
+    <t>zgallerieautomation_tc10@zgqa.com</t>
+  </si>
+  <si>
+    <t>zgallerieautomation_tc11@zgqa.com</t>
+  </si>
+  <si>
+    <t>zgallerieautomation_tc12@zgqa.com</t>
+  </si>
+  <si>
+    <t>zgallerieautomation_tc13@zgqa.com</t>
+  </si>
+  <si>
+    <t>zgallerieautomation_tc14@zgqa.com</t>
+  </si>
+  <si>
+    <t>zgallerieautomation_tc15@zgqa.com</t>
+  </si>
+  <si>
+    <t>zgallerieautomation_tc16@zgqa.com</t>
+  </si>
+  <si>
+    <t>zgallerieautomation_tc17@zgqa.com</t>
+  </si>
+  <si>
+    <t>zgallerieautomation_tc18@zgqa.com</t>
+  </si>
+  <si>
+    <t>zgallerieautomation_tc19@zgqa.com</t>
+  </si>
+  <si>
+    <t>Password1</t>
+  </si>
+  <si>
+    <t>FIRST NAMES</t>
+  </si>
+  <si>
+    <t>LAST NAMES</t>
+  </si>
+  <si>
+    <t>pay pal</t>
+  </si>
+  <si>
+    <t>jmatos@directbuy.com</t>
+  </si>
+  <si>
+    <t>draw~88~dress</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Fname1</t>
+  </si>
+  <si>
+    <t>Lname1</t>
+  </si>
+  <si>
+    <t>Fname1@zgqa.com</t>
+  </si>
+  <si>
+    <t>new 1</t>
+  </si>
+  <si>
+    <t>new random</t>
+  </si>
+  <si>
+    <t>RANDOM KEY</t>
+  </si>
+  <si>
+    <t>['Holms',  'Batman', 'Karambulya', 'Dundar', 'Barmaley', 'Kurgudu', 'Laptop']</t>
+  </si>
+  <si>
+    <t>['Johny', 'BahuBali', 'Sherlock', 'Ivan', 'Kassandra', 'Nefertiti', 'Kuzya', 'Bob', 'Luciano']</t>
+  </si>
+  <si>
+    <t>EMAIL SUFFIX</t>
+  </si>
+  <si>
+    <t>zgqa.com</t>
+  </si>
+  <si>
+    <t>ACCOUNT SAVED</t>
+  </si>
+  <si>
+    <t>Your account information has been saved.</t>
+  </si>
+  <si>
+    <t>address_id</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>line_1</t>
+  </si>
+  <si>
+    <t>line_2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>guest</t>
+  </si>
+  <si>
+    <t>zgautomation@zgqa.com</t>
+  </si>
+  <si>
+    <t>ZGAutomation</t>
+  </si>
+  <si>
+    <t>Guestuser</t>
+  </si>
+  <si>
+    <t>8450 Broadway</t>
+  </si>
+  <si>
+    <t>Merrillville</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>shipping</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>777 Brockton Avenue</t>
+  </si>
+  <si>
+    <t>Abington</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>billing</t>
+  </si>
+  <si>
+    <t>Billing User</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>134 King St</t>
+  </si>
+  <si>
+    <t>Falmouth</t>
+  </si>
+  <si>
+    <t>227 Sharrott Ave</t>
+  </si>
+  <si>
+    <t>Staten Island</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>fulll_state</t>
+  </si>
+  <si>
+    <t>bvt-01-tmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home/Art &amp; Mirrors/Art By Type/Framed Art </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,13 +403,151 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -69,13 +559,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -353,11 +865,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2B43D5-2FC5-4CCF-886B-08DFFA3DBD04}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,4 +972,684 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7544987D-61EB-40BF-AEE6-388E1D4A3981}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="10">
+        <v>2197361100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{144993FF-2F6C-49A9-9A1F-DDCB6807E14B}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{C3F12CE7-B200-46A1-A74E-3FB3FD020297}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{1A7C8710-D411-457B-83A9-4526A1CBE91B}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{6673F2A9-1243-4C98-B6CF-AFC9D8036E04}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{995A46BC-5B10-4EB1-80C9-4AEB6A54B765}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{5F7C0A75-4924-46A9-AC1C-8CE8C35005FB}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{BF610CEF-0892-42EF-9CF0-B84CA2EF4D14}"/>
+    <hyperlink ref="D7" r:id="rId8" xr:uid="{98FAD294-946E-44C2-B0EC-107676A06B68}"/>
+    <hyperlink ref="D9" r:id="rId9" xr:uid="{0B183D29-6919-4225-8648-6EFF74C00869}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{6C99A9E9-1F71-4460-8B6D-96D531F7BC7E}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{386AF918-E04F-4741-A52A-B4143C5DC082}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{1FAA3988-47DB-405E-9C90-358C90309DB4}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{D43427EC-18A2-43E2-800A-27A98EBB037E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375C77DC-8AA5-4748-B2D3-355A851807C5}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="61.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2">
+        <v>46410</v>
+      </c>
+      <c r="J2">
+        <v>2197361100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3">
+        <v>60173</v>
+      </c>
+      <c r="J3">
+        <v>2197361100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4">
+        <v>46410</v>
+      </c>
+      <c r="J4">
+        <v>2197361100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5">
+        <v>2540</v>
+      </c>
+      <c r="J5">
+        <v>2197361100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6">
+        <v>10309</v>
+      </c>
+      <c r="J6">
+        <v>7183176103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CCC071-A5A8-4DCD-A5E4-F3DFE59C42EC}">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="138" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="4">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{0D849ED7-3A66-4D84-BB58-31C3B24D9B22}"/>
+    <hyperlink ref="Q3" r:id="rId2" xr:uid="{3BD28145-6E65-4F6F-A25C-D03F5BB781F0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsmyrnov\PycharmProjects\selenium-zgl-bvt\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD269A87-AACF-4EF7-A44E-AB52022204BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257CD0E8-4ABE-4740-9CA7-BEF17B1A8807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="945" windowWidth="26205" windowHeight="14235" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="300" windowWidth="26205" windowHeight="14235" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="130">
   <si>
     <t>Meganav Name</t>
   </si>
@@ -389,6 +389,36 @@
   </si>
   <si>
     <t xml:space="preserve">Home/Art &amp; Mirrors/Art By Type/Framed Art </t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>50 miles</t>
+  </si>
+  <si>
+    <t>100 miles</t>
+  </si>
+  <si>
+    <t>zip_code</t>
+  </si>
+  <si>
+    <t>search_keyword</t>
+  </si>
+  <si>
+    <t>couch</t>
+  </si>
+  <si>
+    <t>Price: Low to High</t>
+  </si>
+  <si>
+    <t>Alphabetical: A to Z</t>
+  </si>
+  <si>
+    <t>sort_by</t>
+  </si>
+  <si>
+    <t>table</t>
   </si>
 </sst>
 </file>
@@ -869,7 +899,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CCC071-A5A8-4DCD-A5E4-F3DFE59C42EC}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,10 +1513,14 @@
     <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="138" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="138" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1536,10 +1570,22 @@
         <v>30</v>
       </c>
       <c r="Q1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1588,11 +1634,23 @@
       <c r="P2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2">
+        <v>10001</v>
+      </c>
+      <c r="R2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S2" t="s">
+        <v>125</v>
+      </c>
+      <c r="T2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -1641,14 +1699,26 @@
       <c r="P3" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3">
+        <v>10001</v>
+      </c>
+      <c r="R3" t="s">
+        <v>122</v>
+      </c>
+      <c r="S3" t="s">
+        <v>129</v>
+      </c>
+      <c r="T3" t="s">
+        <v>127</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{0D849ED7-3A66-4D84-BB58-31C3B24D9B22}"/>
-    <hyperlink ref="Q3" r:id="rId2" xr:uid="{3BD28145-6E65-4F6F-A25C-D03F5BB781F0}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{0D849ED7-3A66-4D84-BB58-31C3B24D9B22}"/>
+    <hyperlink ref="U3" r:id="rId2" xr:uid="{3BD28145-6E65-4F6F-A25C-D03F5BB781F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsmyrnov\PycharmProjects\selenium-zgl-bvt\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257CD0E8-4ABE-4740-9CA7-BEF17B1A8807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E62213-1F0E-458E-AC26-F6FE0DD49D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="300" windowWidth="26205" windowHeight="14235" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="300" windowWidth="26205" windowHeight="14235" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="132">
   <si>
     <t>Meganav Name</t>
   </si>
@@ -382,9 +382,6 @@
     <t>New York</t>
   </si>
   <si>
-    <t>fulll_state</t>
-  </si>
-  <si>
     <t>bvt-01-tmp</t>
   </si>
   <si>
@@ -419,6 +416,15 @@
   </si>
   <si>
     <t>table</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>testfifteen</t>
+  </si>
+  <si>
+    <t>full_state</t>
   </si>
 </sst>
 </file>
@@ -1009,14 +1015,14 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
@@ -1125,8 +1131,12 @@
       <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="D7" s="7" t="s">
         <v>61</v>
       </c>
@@ -1288,25 +1298,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375C77DC-8AA5-4748-B2D3-355A851807C5}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="61.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>86</v>
       </c>
@@ -1317,28 +1327,31 @@
         <v>88</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>117</v>
-      </c>
       <c r="I1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -1348,26 +1361,26 @@
       <c r="C2" t="s">
         <v>97</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>98</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>99</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>100</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>115</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>46410</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2197361100</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -1377,26 +1390,27 @@
       <c r="C3" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" t="s">
         <v>103</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>104</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>105</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>114</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>60173</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2197361100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -1406,26 +1420,27 @@
       <c r="C4" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" t="s">
         <v>98</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>99</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>100</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>115</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>46410</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2197361100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -1435,26 +1450,27 @@
       <c r="C5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" t="s">
         <v>109</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>110</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>105</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>114</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2540</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2197361100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -1464,22 +1480,23 @@
       <c r="C6" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" t="s">
         <v>111</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>112</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>113</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>116</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>10309</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>7183176103</v>
       </c>
     </row>
@@ -1492,7 +1509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CCC071-A5A8-4DCD-A5E4-F3DFE59C42EC}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
@@ -1570,16 +1587,16 @@
         <v>30</v>
       </c>
       <c r="Q1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" t="s">
         <v>123</v>
       </c>
-      <c r="R1" t="s">
-        <v>120</v>
-      </c>
-      <c r="S1" t="s">
-        <v>124</v>
-      </c>
       <c r="T1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U1" t="s">
         <v>11</v>
@@ -1638,13 +1655,13 @@
         <v>10001</v>
       </c>
       <c r="R2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S2" t="s">
+        <v>124</v>
+      </c>
+      <c r="T2" t="s">
         <v>125</v>
-      </c>
-      <c r="T2" t="s">
-        <v>126</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>12</v>
@@ -1652,7 +1669,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1685,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -1703,13 +1720,13 @@
         <v>10001</v>
       </c>
       <c r="R3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>12</v>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsmyrnov\PycharmProjects\selenium-zgl-bvt\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E62213-1F0E-458E-AC26-F6FE0DD49D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404F0D14-A467-47AC-9FEF-99EE89B9C360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="300" windowWidth="26205" windowHeight="14235" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="300" windowWidth="26205" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="135">
   <si>
     <t>Meganav Name</t>
   </si>
@@ -425,6 +425,15 @@
   </si>
   <si>
     <t>full_state</t>
+  </si>
+  <si>
+    <t>Massachusetts[D]</t>
+  </si>
+  <si>
+    <t>DISCOUNT CODE</t>
+  </si>
+  <si>
+    <t>welcome15</t>
   </si>
 </sst>
 </file>
@@ -902,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2B43D5-2FC5-4CCF-886B-08DFFA3DBD04}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,6 +977,14 @@
       </c>
       <c r="B7" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1015,7 +1032,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A2" sqref="A2:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375C77DC-8AA5-4748-B2D3-355A851807C5}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,7 +1418,7 @@
         <v>105</v>
       </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J3">
         <v>60173</v>
@@ -1509,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CCC071-A5A8-4DCD-A5E4-F3DFE59C42EC}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsmyrnov\PycharmProjects\selenium-zgl-bvt\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404F0D14-A467-47AC-9FEF-99EE89B9C360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A573047-5080-419D-842E-13DC894B6583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="300" windowWidth="26205" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22575" windowHeight="14595" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="BVT" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="142">
   <si>
     <t>Meganav Name</t>
   </si>
@@ -391,9 +392,6 @@
     <t>distance</t>
   </si>
   <si>
-    <t>50 miles</t>
-  </si>
-  <si>
     <t>100 miles</t>
   </si>
   <si>
@@ -430,10 +428,34 @@
     <t>Massachusetts[D]</t>
   </si>
   <si>
-    <t>DISCOUNT CODE</t>
-  </si>
-  <si>
     <t>welcome15</t>
+  </si>
+  <si>
+    <t>STORE PICK UP MESSAGE</t>
+  </si>
+  <si>
+    <t>Pick Up in Store:</t>
+  </si>
+  <si>
+    <t>IN STOCK</t>
+  </si>
+  <si>
+    <t>In Stock</t>
+  </si>
+  <si>
+    <t>DELIVERED</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>OUT OF STOCK</t>
+  </si>
+  <si>
+    <t>Out of stock</t>
+  </si>
+  <si>
+    <t>PROMO CODE</t>
   </si>
 </sst>
 </file>
@@ -911,15 +933,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2B43D5-2FC5-4CCF-886B-08DFFA3DBD04}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -981,10 +1003,42 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>133</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1206,7 @@
         <v>96</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>61</v>
@@ -1344,7 +1398,7 @@
         <v>88</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>89</v>
@@ -1359,7 +1413,7 @@
         <v>92</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>93</v>
@@ -1418,7 +1472,7 @@
         <v>105</v>
       </c>
       <c r="I3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J3">
         <v>60173</v>
@@ -1526,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CCC071-A5A8-4DCD-A5E4-F3DFE59C42EC}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,16 +1658,16 @@
         <v>30</v>
       </c>
       <c r="Q1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R1" t="s">
         <v>119</v>
       </c>
       <c r="S1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U1" t="s">
         <v>11</v>
@@ -1675,10 +1729,10 @@
         <v>120</v>
       </c>
       <c r="S2" t="s">
+        <v>123</v>
+      </c>
+      <c r="T2" t="s">
         <v>124</v>
-      </c>
-      <c r="T2" t="s">
-        <v>125</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>12</v>
@@ -1737,13 +1791,13 @@
         <v>10001</v>
       </c>
       <c r="R3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>12</v>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsmyrnov\PycharmProjects\selenium-zgl-bvt\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A573047-5080-419D-842E-13DC894B6583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1F9ECA-B5A8-4257-A646-432AA9F59B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22575" windowHeight="14595" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="1425" windowWidth="22575" windowHeight="13200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="BVT" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1085,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7544987D-61EB-40BF-AEE6-388E1D4A3981}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1094,7 @@
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
@@ -1580,7 +1579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CCC071-A5A8-4DCD-A5E4-F3DFE59C42EC}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
